--- a/data/trans_orig/IP26B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP26B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{751F5E85-EDC1-4204-810F-FB041D314584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF3E216D-CE6D-419A-B4F6-2DED6F50A357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BBAC4BF4-44DD-410F-A975-EC26359ADB7B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{48805F52-1B0B-4825-96C9-FA34498BFBD5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="570">
   <si>
     <t>Menores según su opinión sobre tomar el sol en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -125,1531 +125,1564 @@
     <t>6,38%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
   </si>
   <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su opinión sobre tomar el sol en 2012 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>Menores según su opinión sobre tomar el sol en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su opinión sobre tomar el sol en 2012 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>Menores según su opinión sobre tomar el sol en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>3,31%</t>
   </si>
   <si>
     <t>Menores según su opinión sobre tomar el sol en 2023 (Tasa respuesta: 100,0%)</t>
@@ -2127,7 +2160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11451EA-6515-4148-81BD-3978BC41B1CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3727030E-7C0D-48B9-A08F-769514A74DEE}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3027,7 +3060,7 @@
         <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
@@ -3036,13 +3069,13 @@
         <v>59379</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3090,13 @@
         <v>152102</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>213</v>
@@ -3072,13 +3105,13 @@
         <v>143074</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M20" s="7">
         <v>442</v>
@@ -3087,13 +3120,13 @@
         <v>295176</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3141,13 @@
         <v>244282</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H21" s="7">
         <v>327</v>
@@ -3123,13 +3156,13 @@
         <v>214999</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M21" s="7">
         <v>695</v>
@@ -3138,13 +3171,13 @@
         <v>459282</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3192,13 @@
         <v>33379</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -3174,13 +3207,13 @@
         <v>25803</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
@@ -3189,13 +3222,13 @@
         <v>59182</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,7 +3264,7 @@
         <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -3240,13 +3273,13 @@
         <v>18163</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,7 +3335,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3320,37 +3353,37 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3398,13 @@
         <v>13553</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H26" s="7">
         <v>34</v>
@@ -3380,13 +3413,13 @@
         <v>24534</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -3395,13 +3428,13 @@
         <v>38088</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3449,13 @@
         <v>52237</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H27" s="7">
         <v>75</v>
@@ -3431,13 +3464,13 @@
         <v>50600</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M27" s="7">
         <v>152</v>
@@ -3446,13 +3479,13 @@
         <v>102836</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3500,13 @@
         <v>79352</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>125</v>
@@ -3482,13 +3515,13 @@
         <v>86216</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M28" s="7">
         <v>245</v>
@@ -3497,13 +3530,13 @@
         <v>165568</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3551,13 @@
         <v>7610</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -3533,13 +3566,13 @@
         <v>8624</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -3548,13 +3581,13 @@
         <v>16234</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3602,13 @@
         <v>4748</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -3584,13 +3617,13 @@
         <v>2723</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -3599,13 +3632,13 @@
         <v>7471</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,37 +3712,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3757,13 @@
         <v>54440</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H33" s="7">
         <v>76</v>
@@ -3739,13 +3772,13 @@
         <v>53458</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M33" s="7">
         <v>156</v>
@@ -3754,13 +3787,13 @@
         <v>107898</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3808,13 @@
         <v>225754</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H34" s="7">
         <v>335</v>
@@ -3790,13 +3823,13 @@
         <v>225502</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M34" s="7">
         <v>673</v>
@@ -3805,13 +3838,13 @@
         <v>451255</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3859,13 @@
         <v>371442</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H35" s="7">
         <v>516</v>
@@ -3841,13 +3874,13 @@
         <v>343591</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M35" s="7">
         <v>1076</v>
@@ -3856,13 +3889,13 @@
         <v>715033</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3910,13 @@
         <v>48397</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="H36" s="7">
         <v>68</v>
@@ -3892,13 +3925,13 @@
         <v>43095</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M36" s="7">
         <v>142</v>
@@ -3907,13 +3940,13 @@
         <v>91493</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,10 +3961,10 @@
         <v>20133</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>206</v>
@@ -3946,10 +3979,10 @@
         <v>207</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -3958,13 +3991,13 @@
         <v>34139</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,7 +4053,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4040,7 +4073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86635FC-06DC-4BCC-B1AF-50425AD110A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743448FD-5322-4332-9598-274B4F7459E3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4057,7 +4090,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4515,7 +4548,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4530,7 +4563,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4545,7 +4578,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4593,13 @@
         <v>2273</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -4575,13 +4608,13 @@
         <v>4720</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -4590,13 +4623,13 @@
         <v>6994</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4644,13 @@
         <v>9046</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -4626,13 +4659,13 @@
         <v>14824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4641,13 +4674,13 @@
         <v>23870</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,28 +4695,28 @@
         <v>58401</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
         <v>77</v>
       </c>
       <c r="I14" s="7">
-        <v>53274</v>
+        <v>53275</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>160</v>
@@ -4692,13 +4725,13 @@
         <v>111675</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4746,13 @@
         <v>15231</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H15" s="7">
         <v>24</v>
@@ -4728,13 +4761,13 @@
         <v>17281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M15" s="7">
         <v>44</v>
@@ -4743,13 +4776,13 @@
         <v>32512</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4797,13 @@
         <v>1241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4779,13 +4812,13 @@
         <v>2269</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4794,13 +4827,13 @@
         <v>3510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,7 +4860,7 @@
         <v>134</v>
       </c>
       <c r="I17" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>21</v>
@@ -4889,7 +4922,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4919,13 +4952,13 @@
         <v>32522</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -4934,13 +4967,13 @@
         <v>33188</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>260</v>
+        <v>61</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -4949,13 +4982,13 @@
         <v>65710</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +5003,13 @@
         <v>76502</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -4985,13 +5018,13 @@
         <v>68320</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M20" s="7">
         <v>213</v>
@@ -5000,13 +5033,13 @@
         <v>144821</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>271</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,13 +5054,13 @@
         <v>296935</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H21" s="7">
         <v>399</v>
@@ -5036,13 +5069,13 @@
         <v>279012</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M21" s="7">
         <v>822</v>
@@ -5051,13 +5084,13 @@
         <v>575948</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5105,13 @@
         <v>64218</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -5087,13 +5120,13 @@
         <v>59900</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>178</v>
@@ -5102,13 +5135,13 @@
         <v>124118</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5156,13 @@
         <v>18965</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -5138,13 +5171,13 @@
         <v>9071</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -5153,13 +5186,13 @@
         <v>28036</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,7 +5248,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5233,7 +5266,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5248,7 +5281,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5263,7 +5296,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5311,13 @@
         <v>15388</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -5293,13 +5326,13 @@
         <v>8707</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -5308,13 +5341,13 @@
         <v>24095</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5362,13 @@
         <v>25945</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H27" s="7">
         <v>36</v>
@@ -5344,13 +5377,13 @@
         <v>25292</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M27" s="7">
         <v>73</v>
@@ -5359,13 +5392,13 @@
         <v>51237</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>313</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5413,13 @@
         <v>108872</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>150</v>
@@ -5395,13 +5428,13 @@
         <v>106763</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>304</v>
@@ -5410,13 +5443,13 @@
         <v>215635</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5464,13 @@
         <v>15371</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>131</v>
+        <v>327</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>324</v>
+        <v>61</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -5446,13 +5479,13 @@
         <v>21484</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M29" s="7">
         <v>52</v>
@@ -5461,13 +5494,13 @@
         <v>36856</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5515,13 @@
         <v>6651</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>333</v>
+        <v>114</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -5497,13 +5530,13 @@
         <v>3939</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -5512,13 +5545,13 @@
         <v>10590</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,37 +5625,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5670,13 @@
         <v>50183</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="H33" s="7">
         <v>71</v>
@@ -5652,10 +5685,10 @@
         <v>46615</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>345</v>
@@ -5667,13 +5700,13 @@
         <v>96798</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>178</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5721,13 @@
         <v>111493</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H34" s="7">
         <v>161</v>
@@ -5703,13 +5736,13 @@
         <v>108435</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M34" s="7">
         <v>322</v>
@@ -5718,13 +5751,13 @@
         <v>219928</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5772,13 @@
         <v>464208</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H35" s="7">
         <v>626</v>
@@ -5754,13 +5787,13 @@
         <v>439050</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M35" s="7">
         <v>1286</v>
@@ -5769,13 +5802,13 @@
         <v>903258</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5823,13 @@
         <v>95462</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H36" s="7">
         <v>140</v>
@@ -5805,13 +5838,13 @@
         <v>98665</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>225</v>
+        <v>372</v>
       </c>
       <c r="M36" s="7">
         <v>275</v>
@@ -5820,13 +5853,13 @@
         <v>194127</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5874,13 @@
         <v>26857</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="H37" s="7">
         <v>22</v>
@@ -5856,13 +5889,13 @@
         <v>15279</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M37" s="7">
         <v>60</v>
@@ -5871,13 +5904,13 @@
         <v>42136</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,7 +5966,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5953,7 +5986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61F0732-A1E1-4BB7-A47C-F1DD9B7B7180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA7296E-5172-4745-AD93-F7ADC30DD1F0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5970,7 +6003,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6400,7 +6433,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6415,7 +6448,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6430,7 +6463,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6478,13 @@
         <v>3414</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -6460,13 +6493,13 @@
         <v>3218</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -6475,13 +6508,13 @@
         <v>6632</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>388</v>
+        <v>295</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6529,13 @@
         <v>11499</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -6511,13 +6544,13 @@
         <v>18566</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -6526,13 +6559,13 @@
         <v>30065</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>252</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6580,13 @@
         <v>40233</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -6562,13 +6595,13 @@
         <v>30214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>104</v>
@@ -6577,13 +6610,13 @@
         <v>70448</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6631,13 @@
         <v>12229</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -6613,13 +6646,13 @@
         <v>5870</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>352</v>
+        <v>416</v>
       </c>
       <c r="M15" s="7">
         <v>26</v>
@@ -6628,13 +6661,13 @@
         <v>18099</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>311</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6682,13 @@
         <v>1239</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6664,13 +6697,13 @@
         <v>1510</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -6679,13 +6712,13 @@
         <v>2749</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,7 +6792,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6804,13 +6837,13 @@
         <v>34961</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -6819,13 +6852,13 @@
         <v>37505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -6834,13 +6867,13 @@
         <v>72466</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,13 +6888,13 @@
         <v>125210</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>182</v>
@@ -6870,13 +6903,13 @@
         <v>121018</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M20" s="7">
         <v>362</v>
@@ -6885,13 +6918,13 @@
         <v>246228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,13 +6939,13 @@
         <v>228045</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H21" s="7">
         <v>349</v>
@@ -6921,13 +6954,13 @@
         <v>228883</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="M21" s="7">
         <v>673</v>
@@ -6936,13 +6969,13 @@
         <v>456927</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6990,13 @@
         <v>85306</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H22" s="7">
         <v>100</v>
@@ -6972,13 +7005,13 @@
         <v>68934</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>456</v>
       </c>
       <c r="M22" s="7">
         <v>218</v>
@@ -6987,13 +7020,13 @@
         <v>154239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>457</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +7041,13 @@
         <v>14623</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -7023,13 +7056,13 @@
         <v>13646</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -7038,13 +7071,13 @@
         <v>28269</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>467</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,7 +7133,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7118,7 +7151,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7133,7 +7166,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7148,7 +7181,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,13 +7196,13 @@
         <v>13550</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -7178,13 +7211,13 @@
         <v>10028</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>467</v>
+        <v>57</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -7193,13 +7226,13 @@
         <v>23578</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>131</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,13 +7247,13 @@
         <v>38093</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="H27" s="7">
         <v>54</v>
@@ -7229,13 +7262,13 @@
         <v>34146</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="M27" s="7">
         <v>109</v>
@@ -7244,13 +7277,13 @@
         <v>72239</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7298,13 @@
         <v>94018</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H28" s="7">
         <v>123</v>
@@ -7280,13 +7313,13 @@
         <v>83134</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="M28" s="7">
         <v>261</v>
@@ -7295,13 +7328,13 @@
         <v>177152</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7349,13 @@
         <v>39385</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="H29" s="7">
         <v>57</v>
@@ -7331,13 +7364,13 @@
         <v>39855</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>270</v>
+        <v>499</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="M29" s="7">
         <v>112</v>
@@ -7346,13 +7379,13 @@
         <v>79240</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7400,13 @@
         <v>1757</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -7382,13 +7415,13 @@
         <v>3455</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>298</v>
+        <v>506</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>255</v>
+        <v>507</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -7400,10 +7433,10 @@
         <v>24</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,37 +7510,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7555,13 @@
         <v>51925</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>499</v>
+        <v>336</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>346</v>
+        <v>509</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="H33" s="7">
         <v>80</v>
@@ -7537,13 +7570,13 @@
         <v>50751</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>324</v>
+        <v>511</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>501</v>
+        <v>130</v>
       </c>
       <c r="M33" s="7">
         <v>156</v>
@@ -7552,13 +7585,13 @@
         <v>102676</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>108</v>
+        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,13 +7606,13 @@
         <v>174802</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="H34" s="7">
         <v>263</v>
@@ -7588,13 +7621,13 @@
         <v>173730</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="M34" s="7">
         <v>515</v>
@@ -7603,13 +7636,13 @@
         <v>348532</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,13 +7657,13 @@
         <v>362296</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="H35" s="7">
         <v>518</v>
@@ -7639,13 +7672,13 @@
         <v>342231</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>516</v>
+        <v>189</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="M35" s="7">
         <v>1038</v>
@@ -7654,13 +7687,13 @@
         <v>704526</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>48</v>
+        <v>530</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7708,13 @@
         <v>136919</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="H36" s="7">
         <v>166</v>
@@ -7690,13 +7723,13 @@
         <v>114658</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="M36" s="7">
         <v>356</v>
@@ -7705,13 +7738,13 @@
         <v>251578</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7759,13 @@
         <v>17620</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="H37" s="7">
         <v>26</v>
@@ -7741,13 +7774,13 @@
         <v>18611</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>534</v>
+        <v>294</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -7756,13 +7789,13 @@
         <v>36231</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>333</v>
+        <v>546</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7818,7 +7851,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -7838,7 +7871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC2D713-59C8-4AA1-962B-7C46DBE24D31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB4EA09-914A-401A-9E64-C4ECA290F5EE}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7855,7 +7888,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8310,7 +8343,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -8325,7 +8358,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -8340,7 +8373,7 @@
         <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -8364,7 +8397,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8379,7 +8412,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8394,7 +8427,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,7 +8448,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8430,7 +8463,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -8445,7 +8478,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,7 +8499,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8481,7 +8514,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8496,7 +8529,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,7 +8550,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8532,7 +8565,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8547,7 +8580,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,7 +8601,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8583,7 +8616,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8598,7 +8631,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8669,7 +8702,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>21</v>
@@ -8684,7 +8717,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>21</v>
@@ -8699,7 +8732,7 @@
         <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>21</v>
@@ -8723,7 +8756,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8738,7 +8771,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -8753,7 +8786,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8774,7 +8807,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8789,7 +8822,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8804,7 +8837,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8825,7 +8858,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8840,7 +8873,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -8855,7 +8888,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8876,7 +8909,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8891,7 +8924,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -8906,7 +8939,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8927,7 +8960,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8942,7 +8975,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -8957,7 +8990,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9013,7 +9046,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -9028,7 +9061,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>21</v>
@@ -9043,7 +9076,7 @@
         <v>19</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>21</v>
@@ -9058,7 +9091,7 @@
         <v>19</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>21</v>
@@ -9082,7 +9115,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9097,7 +9130,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9112,7 +9145,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9133,7 +9166,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -9148,7 +9181,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -9163,7 +9196,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9184,7 +9217,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9199,7 +9232,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9214,7 +9247,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9235,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -9250,7 +9283,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9265,7 +9298,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9286,7 +9319,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -9301,7 +9334,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -9316,7 +9349,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9387,7 +9420,7 @@
         <v>19</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>21</v>
@@ -9402,7 +9435,7 @@
         <v>19</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>21</v>
@@ -9417,7 +9450,7 @@
         <v>19</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>21</v>
@@ -9441,7 +9474,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9456,7 +9489,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9471,7 +9504,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9492,7 +9525,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9507,7 +9540,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9522,7 +9555,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9543,7 +9576,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9558,7 +9591,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -9573,7 +9606,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9594,7 +9627,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9609,7 +9642,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9624,7 +9657,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9645,7 +9678,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9660,7 +9693,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -9675,7 +9708,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9731,7 +9764,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
